--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t>Sr No</t>
   </si>
@@ -347,6 +347,18 @@
   </si>
   <si>
     <t>L53. Largest BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
 </sst>
 </file>
@@ -699,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1148,8 +1160,40 @@
         <v>110</v>
       </c>
     </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C54">
+  <conditionalFormatting sqref="C2:C58">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
@@ -1157,7 +1201,7 @@
       <formula>"Not Important"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="54">
+  <dataValidations count="58">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Completed,In-Progress,Not Important"</formula1>
     </dataValidation>
@@ -1318,6 +1362,18 @@
       <formula1>"Completed,In-Progress,Not Important"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
+      <formula1>"Completed,In-Progress,Not Important"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
+      <formula1>"Completed,In-Progress,Not Important"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
+      <formula1>"Completed,In-Progress,Not Important"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
+      <formula1>"Completed,In-Progress,Not Important"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
       <formula1>"Completed,In-Progress,Not Important"</formula1>
     </dataValidation>
   </dataValidations>
